--- a/Clus/20220911/test/Clus-DoC Results/ROI_set/after_col_mark/statistics1.xlsx
+++ b/Clus/20220911/test/Clus-DoC Results/ROI_set/after_col_mark/statistics1.xlsx
@@ -478,54 +478,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2148</v>
+        <v>994</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2639664804469274</v>
+        <v>0.3329979879275654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2472067039106145</v>
+        <v>0.05533199195171026</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4888268156424581</v>
+        <v>0.6116700201207244</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3337988826815643</v>
+        <v>0.1167002012072435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04934823091247673</v>
+        <v>0.02414486921529175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1894785847299814</v>
+        <v>0.0482897384305835</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09497206703910614</v>
+        <v>0.04426559356136821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3903</v>
+        <v>1319</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1378426851140149</v>
+        <v>0.2759666413949962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3015629003330771</v>
+        <v>0.2615617892342684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.560594414552908</v>
+        <v>0.4624715693707354</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3392262362285421</v>
+        <v>0.1902956785443518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03433256469382526</v>
+        <v>0.03411675511751327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2029208301306687</v>
+        <v>0.1053828658074299</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019728414040482</v>
+        <v>0.05079605761940864</v>
       </c>
     </row>
   </sheetData>
@@ -591,54 +591,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5736</v>
+        <v>1267</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1617852161785216</v>
+        <v>0.2541436464088398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2072873082287308</v>
+        <v>0.1846882399368587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6309274755927475</v>
+        <v>0.5611681136543015</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04811715481171548</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005927475592747559</v>
+        <v>0.009471191791633781</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03138075313807531</v>
+        <v>0.06945540647198106</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01080892608089261</v>
+        <v>0.03157063930544594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9100</v>
+        <v>1655</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06538461538461539</v>
+        <v>0.2066465256797583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1232967032967033</v>
+        <v>0.04531722054380664</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8113186813186813</v>
+        <v>0.748036253776435</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03043956043956044</v>
+        <v>0.1087613293051359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002307692307692308</v>
+        <v>0.02114803625377644</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0143956043956044</v>
+        <v>0.0338368580060423</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01373626373626374</v>
+        <v>0.05377643504531722</v>
       </c>
     </row>
   </sheetData>

--- a/Clus/20220911/test/Clus-DoC Results/ROI_set/after_col_mark/statistics1.xlsx
+++ b/Clus/20220911/test/Clus-DoC Results/ROI_set/after_col_mark/statistics1.xlsx
@@ -478,54 +478,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>994</v>
+        <v>1612</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3329979879275654</v>
+        <v>0.3089330024813896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05533199195171026</v>
+        <v>0.2754342431761787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6116700201207244</v>
+        <v>0.4156327543424317</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1167002012072435</v>
+        <v>0.2959057071960298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02414486921529175</v>
+        <v>0.03660049627791563</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0482897384305835</v>
+        <v>0.2003722084367246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04426559356136821</v>
+        <v>0.05893300248138958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1319</v>
+        <v>3540</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2759666413949962</v>
+        <v>0.280225988700565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2615617892342684</v>
+        <v>0.1838983050847458</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4624715693707354</v>
+        <v>0.5358757062146893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1902956785443518</v>
+        <v>0.1822033898305085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03411675511751327</v>
+        <v>0.0307909604519774</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1053828658074299</v>
+        <v>0.09265536723163842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05079605761940864</v>
+        <v>0.05875706214689266</v>
       </c>
     </row>
   </sheetData>
@@ -591,54 +591,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1267</v>
+        <v>2302</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2541436464088398</v>
+        <v>0.2145960034752389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1846882399368587</v>
+        <v>0.1976542137271937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5611681136543015</v>
+        <v>0.5877497827975673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1104972375690608</v>
+        <v>0.1394439617723718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009471191791633781</v>
+        <v>0.0104257167680278</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06945540647198106</v>
+        <v>0.09774109470026064</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03157063930544594</v>
+        <v>0.03127715030408341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1655</v>
+        <v>4545</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2066465256797583</v>
+        <v>0.2044004400440044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04531722054380664</v>
+        <v>0.141034103410341</v>
       </c>
       <c r="D3" t="n">
-        <v>0.748036253776435</v>
+        <v>0.6545654565456546</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1087613293051359</v>
+        <v>0.124972497249725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02114803625377644</v>
+        <v>0.01474147414741474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0338368580060423</v>
+        <v>0.0737073707370737</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05377643504531722</v>
+        <v>0.03652365236523653</v>
       </c>
     </row>
   </sheetData>
